--- a/TripAdvisorApplication/src/test/java/dataTable/TripAdvisor.xlsx
+++ b/TripAdvisorApplication/src/test/java/dataTable/TripAdvisor.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugosw\Documents\Cognizant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugosw\Documents\Cognizant\CTS Java Workspace\TripAdvisorApplication\src\test\java\dataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D844D-03CB-49D5-BCAF-1431CBC8932D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8D2F72AD-9007-456E-94F1-E6C460F83848}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{F48040C9-BD5E-4808-9B4F-FBBC43D04253}"/>
+    <workbookView activeTab="1" windowHeight="11280" windowWidth="20730" xWindow="-120" xr2:uid="{F48040C9-BD5E-4808-9B4F-FBBC43D04253}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Test_Output" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Test_Output" r:id="rId2" sheetId="3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Where To?</t>
   </si>
@@ -58,19 +58,77 @@
     <t>Bella</t>
   </si>
   <si>
-    <t>Hotel name</t>
-  </si>
-  <si>
     <t>Guests</t>
   </si>
   <si>
     <t>Number of Hotels</t>
+  </si>
+  <si>
+    <t>Hotel Names</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Price Per Night</t>
+  </si>
+  <si>
+    <t>Passengers</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>Launched Year</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Elegant Cosy Conquest</t>
+  </si>
+  <si>
+    <t>City/River View Retreat in the Heart of Westlands</t>
+  </si>
+  <si>
+    <t>Holiday Apartment 5 Rooms Junction Mall Nairobi</t>
+  </si>
+  <si>
+    <t>41,473 / 5 nights</t>
+  </si>
+  <si>
+    <t>29,860 / 5 nights</t>
+  </si>
+  <si>
+    <t>45,620 / 5 nights</t>
+  </si>
+  <si>
+    <t>8,294</t>
+  </si>
+  <si>
+    <t>5,972</t>
+  </si>
+  <si>
+    <t>9,124</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002   </t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,19 +170,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -141,10 +200,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -179,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -231,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -342,21 +401,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -373,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -425,29 +484,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87087DC6-B7EC-45F9-BA1A-903AD55D7EC6}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87087DC6-B7EC-45F9-BA1A-903AD55D7EC6}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -464,10 +523,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -503,30 +562,98 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C410C6-9277-4F0E-9080-731EFBB7C92D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9325C74D-5BEA-4E9B-B893-4BB91825F1AA}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>